--- a/program_simple_parallel.xlsx
+++ b/program_simple_parallel.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,21 @@
           <t>product_type</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>claim_basis</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>inception_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -509,6 +524,21 @@
           <t>quote_share</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,6 +552,21 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
         </is>
       </c>
     </row>
@@ -536,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +658,21 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>include</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>claim_basis</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>inception_date</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
         </is>
       </c>
     </row>
@@ -637,6 +697,9 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -661,6 +724,9 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
